--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4432,7 +4432,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4792,7 +4792,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5034,7 +5034,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5884,7 +5884,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6244,7 +6244,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6486,7 +6486,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7336,7 +7336,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7696,7 +7696,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7938,7 +7938,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8788,7 +8788,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9148,7 +9148,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9390,7 +9390,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10240,7 +10240,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10600,7 +10600,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10842,7 +10842,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4012,7 +4012,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-ncit-age</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-ncit-age</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-ncit-age</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-ncit-age</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4069,7 +4069,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -6973,7 +6973,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -8425,7 +8425,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -9877,7 +9877,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-ncit-age.xlsx
+++ b/output/StructureDefinition-cls-obo-ncit-age.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
